--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_mech_order_fixed.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/true_res_HMP2360_r0_t0_mech_order_fixed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="127">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,25 +45,40 @@
     <t xml:space="preserve">HMP2360_r0_t0_promiscuous</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -72,19 +87,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -318,40 +324,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vexp1_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vexp1_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -511,13 +502,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -541,123 +544,132 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -677,7 +689,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A2:B15 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -685,23 +697,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -714,8 +726,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -728,8 +740,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -742,8 +754,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
+      <c r="A5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -756,8 +768,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -770,8 +782,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -784,8 +796,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
+      <c r="A8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -798,8 +810,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -812,8 +824,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -826,8 +838,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -840,8 +852,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -854,8 +866,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -868,8 +880,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +912,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A2:B15 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -908,23 +920,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -937,8 +949,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -951,8 +963,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -965,8 +977,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -979,8 +991,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -993,8 +1005,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1007,8 +1019,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1021,8 +1033,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1035,8 +1047,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1049,8 +1061,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1063,8 +1075,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1077,8 +1089,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1091,8 +1103,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
+      <c r="A14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1105,8 +1117,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1119,8 +1131,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1133,8 +1145,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1147,8 +1159,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1161,8 +1173,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1175,8 +1187,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
+      <c r="A20" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1189,8 +1201,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1221,7 +1233,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="D1 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A2:B15 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1230,58 +1242,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1291,20 +1303,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1314,43 +1326,43 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1360,20 +1372,20 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1383,38 +1395,38 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
@@ -1423,11 +1435,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1437,11 +1449,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1451,11 +1463,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1465,11 +1477,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1479,11 +1491,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1493,11 +1505,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1527,7 +1539,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1536,73 +1548,73 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1666,8 +1678,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1731,8 +1743,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1796,8 +1808,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
+      <c r="A5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1861,8 +1873,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1926,8 +1938,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1991,8 +2003,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
+      <c r="A8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2056,8 +2068,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2121,8 +2133,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2186,8 +2198,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2251,8 +2263,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2316,8 +2328,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2381,8 +2393,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2464,7 +2476,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A2:B15 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2474,231 +2486,231 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
+      <c r="A14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
+      <c r="A20" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2722,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A2:B15 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,157 +2745,157 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B13" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2908,7 +2920,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2917,108 +2929,108 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>89</v>
+      <c r="A2" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3052,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3049,108 +3061,108 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>89</v>
+      <c r="A2" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3172,7 +3184,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3181,19 +3193,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3203,8 +3215,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3214,8 +3226,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3225,8 +3237,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
+      <c r="A5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3236,8 +3248,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3247,8 +3259,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3258,8 +3270,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
+      <c r="A8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3269,8 +3281,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3280,8 +3292,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-10</v>
@@ -3291,8 +3303,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3302,8 +3314,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3313,8 +3325,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3324,8 +3336,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-30</v>
@@ -3353,7 +3365,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3362,19 +3374,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3384,8 +3396,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3395,8 +3407,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3406,8 +3418,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3417,8 +3429,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3428,8 +3440,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3439,8 +3451,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3450,8 +3462,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3461,8 +3473,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3472,8 +3484,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3483,8 +3495,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3494,8 +3506,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3505,8 +3517,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
+      <c r="A14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3516,8 +3528,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3527,8 +3539,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3538,8 +3550,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3549,8 +3561,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3560,8 +3572,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3571,8 +3583,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
+      <c r="A20" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -3582,8 +3594,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -3608,37 +3620,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:B15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -3646,16 +3653,10 @@
       <c r="C2" s="0" t="n">
         <v>4.0829462385141</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>-81.4547774583559</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>4.0829462385141</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3663,16 +3664,10 @@
       <c r="C3" s="0" t="n">
         <v>1.21410377655987E-010</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1.21410377655987E-010</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -3680,16 +3675,10 @@
       <c r="C4" s="0" t="n">
         <v>1.84127891703472E-008</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1.84127891703472E-008</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3697,16 +3686,10 @@
       <c r="C5" s="0" t="n">
         <v>1.65622684914216E-005</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1.65622684914216E-005</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.103545682502924</v>
@@ -3714,27 +3697,15 @@
       <c r="C6" s="0" t="n">
         <v>2.35376773094737E-010</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.35376773094737E-010</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>18.5183721041727</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7.99594430470695E-007</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="E7" s="0" t="n">
         <v>7.99594430470695E-007</v>
       </c>
     </row>
